--- a/data/trans_bre/P16A08-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.8802464477786681</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.066785807579427</v>
+        <v>1.066785807579426</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2526931380458921</v>
@@ -649,7 +649,7 @@
         <v>0.3243068179410816</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3325258435877338</v>
+        <v>0.3325258435877336</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.830618176257061</v>
+        <v>-0.9673692726555148</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.494576309059298</v>
+        <v>0.5369282256322999</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.138630311364033</v>
+        <v>-0.9687953070633838</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.236103827205044</v>
+        <v>-1.086864542829305</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3971102433650669</v>
+        <v>-0.448203045691197</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1156571586880819</v>
+        <v>0.115712946464478</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3129321353535029</v>
+        <v>-0.2775448750705751</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2937851738722152</v>
+        <v>-0.2571235622894674</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.935583084153292</v>
+        <v>1.865794482296708</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.376671267920542</v>
+        <v>4.426454159506021</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.910202159942846</v>
+        <v>2.877774462350064</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.053710697286972</v>
+        <v>3.172019726449895</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.846496219715168</v>
+        <v>1.837987170787687</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.144176317480667</v>
+        <v>3.08954541837138</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.723187752392323</v>
+        <v>1.595746911825488</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.41574665446956</v>
+        <v>1.502331194299295</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.051407984338223</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6400297239972486</v>
+        <v>0.6400297239972492</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5296889384874462</v>
@@ -749,7 +749,7 @@
         <v>1.084178266479245</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2040753673093844</v>
+        <v>0.2040753673093847</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2835598496654971</v>
+        <v>-0.4089632483456508</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2427674902711278</v>
+        <v>0.432686479675722</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.224891899347863</v>
+        <v>1.318760952768857</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.9685714088854041</v>
+        <v>-0.9779072921292107</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1099755746761485</v>
+        <v>-0.1405673319020195</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0427298431315527</v>
+        <v>0.07231590968915844</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2855780970852499</v>
+        <v>0.3425284228056341</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2446963034623475</v>
+        <v>-0.2436235927404266</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.943111122148889</v>
+        <v>2.993078648973709</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.12604156929075</v>
+        <v>4.251868413416913</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.826374253666511</v>
+        <v>4.860558937028657</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.235786344734378</v>
+        <v>2.264482373790653</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.678314711308361</v>
+        <v>1.767170874770053</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.486389113437009</v>
+        <v>1.442894289177541</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.267022656135663</v>
+        <v>2.461199720420836</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.032710322631104</v>
+        <v>0.9868606146643666</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.832946959871023</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.766817860398681</v>
+        <v>1.766817860398679</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9865497279915848</v>
@@ -849,7 +849,7 @@
         <v>1.259730860897781</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4146276908036177</v>
+        <v>0.4146276908036172</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4525482999565558</v>
+        <v>0.1808212262065049</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5458511537740138</v>
+        <v>-1.107080359501128</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.807106042720367</v>
+        <v>1.748044760449234</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.6907290437028286</v>
+        <v>-0.49581719758389</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1078602323204812</v>
+        <v>0.03152714233031588</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1093969414947669</v>
+        <v>-0.1895657309532351</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4055469565046463</v>
+        <v>0.3348688702235742</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1382007664880048</v>
+        <v>-0.08433770544365597</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.298334195422971</v>
+        <v>3.933818195211316</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.98706455615653</v>
+        <v>3.880869255580125</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.995418340025108</v>
+        <v>6.235113365261475</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.756110338604005</v>
+        <v>3.882444641191723</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.043348192128172</v>
+        <v>2.783195990904082</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.389429300951692</v>
+        <v>1.361577517947775</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.598101203911035</v>
+        <v>2.696785515575394</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.209268502183004</v>
+        <v>1.244258041750347</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.268229447838946</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.686982559358073</v>
+        <v>2.686982559358075</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6726116863758463</v>
@@ -949,7 +949,7 @@
         <v>0.3493779784078574</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.8771994017313421</v>
+        <v>0.8771994017313428</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1992641638276777</v>
+        <v>0.2860697255748278</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1526983703575425</v>
+        <v>0.2410747119062932</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.5095905046521011</v>
+        <v>-0.3602805080928541</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8258671459290949</v>
+        <v>0.9074418048648997</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.004592563503508599</v>
+        <v>0.02786633983817229</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0419897304344559</v>
+        <v>0.02883434411647755</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1251873062789755</v>
+        <v>-0.08245837359526584</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1737472167874776</v>
+        <v>0.2099850694169296</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.840621007272066</v>
+        <v>3.833047264889405</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.955878202250375</v>
+        <v>4.138075183616261</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.210509441104176</v>
+        <v>3.27440323928191</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.485048810548768</v>
+        <v>4.592139249687412</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.590369271673814</v>
+        <v>1.659303191452483</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.422460017570239</v>
+        <v>1.441389220459583</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.113669090870172</v>
+        <v>1.210410384277613</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.078719981301349</v>
+        <v>2.078424312301189</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.302522430252814</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.569286931561417</v>
+        <v>1.569286931561416</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6393527593106225</v>
@@ -1049,7 +1049,7 @@
         <v>0.7497959901955056</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4635564402760842</v>
+        <v>0.4635564402760839</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6969752551687676</v>
+        <v>0.620277893478245</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.109791316330972</v>
+        <v>1.050835733981978</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.312850195866196</v>
+        <v>1.37015293029022</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5579031842399831</v>
+        <v>0.5127373150501389</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2534966900198985</v>
+        <v>0.2146194672094519</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2777599901766207</v>
+        <v>0.2604964389333686</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3805194156248877</v>
+        <v>0.3969239292279377</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.140490924029313</v>
+        <v>0.1239552916844722</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.50853639968064</v>
+        <v>2.383889648058115</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.19829101385862</v>
+        <v>3.120414475956236</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.245337593412335</v>
+        <v>3.298716061885155</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.531864458226754</v>
+        <v>2.580337447950532</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.242778745808538</v>
+        <v>1.211786935553599</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.071651771986968</v>
+        <v>1.060154156845954</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.213801576522358</v>
+        <v>1.239361322761981</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8698166847418334</v>
+        <v>0.8783130518880363</v>
       </c>
     </row>
     <row r="19">
